--- a/Victoria University/vu.xlsx
+++ b/Victoria University/vu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Magang\Project\scrape-courses-provider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Magang\Project\scrape-courses-provider\Victoria University\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754D6CAA-1373-4BF6-9057-B457AC6EA791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D527E7CB-2EE0-42FC-85C5-87E2608079CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{F9067D26-6837-4E72-9FFA-220AFBBCADED}"/>
   </bookViews>
@@ -1064,7 +1064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5A6670-0D93-4F03-98D3-70BF8F96322C}">
   <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
